--- a/Mechanical/CAD/6. Tracking Groundstation/Planetary gearbox sheet.xlsx
+++ b/Mechanical/CAD/6. Tracking Groundstation/Planetary gearbox sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\Mach-24\Mechanical\CAD\6. Tracking Groundstation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B16E461-E8B1-4946-81C6-4A2F17EB263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DDCB97-5C15-4499-97BE-E94E47F31F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24A03BD6-BAC8-4676-9064-D606CAC23236}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24A03BD6-BAC8-4676-9064-D606CAC23236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
@@ -505,13 +505,13 @@
       </c>
       <c r="I3">
         <f>LARGE(O7:O14,1)</f>
-        <v>1.05</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -534,7 +534,7 @@
       </c>
       <c r="E7">
         <f>L2</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -547,21 +547,21 @@
       </c>
       <c r="J7">
         <f>L3</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
       <c r="L7">
         <f>E7/(J7+J8)</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N7" t="s">
         <v>17</v>
       </c>
       <c r="O7">
         <f>ABS(L7)</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -573,18 +573,18 @@
       </c>
       <c r="J8">
         <f>L4</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8">
         <f>-D3*(J7+E7)/E7</f>
-        <v>-0.7</v>
+        <v>-1.6800000000000002</v>
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O14" si="0">ABS(L8)</f>
-        <v>0.7</v>
+        <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
       </c>
       <c r="E10">
         <f>L3</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -606,18 +606,18 @@
       </c>
       <c r="J10">
         <f>L2</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10">
         <f>D3*L2/L3</f>
-        <v>0.63</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -629,18 +629,18 @@
       </c>
       <c r="J11">
         <f>L4</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11">
         <f>-D3*(L3+L2)/L3</f>
-        <v>-1.05</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
       </c>
       <c r="E13">
         <f>L4</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
@@ -662,18 +662,18 @@
       </c>
       <c r="J13">
         <f>L2</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
       </c>
       <c r="L13">
         <f>-D3*L2/(L3+L2)</f>
-        <v>-0.252</v>
+        <v>-0.10500000000000001</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0.252</v>
+        <v>0.10500000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -685,18 +685,18 @@
       </c>
       <c r="J14">
         <f>L3</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
       </c>
       <c r="L14">
         <f>-D3*L3/(L3+L2)</f>
-        <v>-0.16800000000000001</v>
+        <v>-0.315</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>0.16800000000000001</v>
+        <v>0.315</v>
       </c>
     </row>
   </sheetData>
